--- a/data/03_interview_qualtrics_data/survey_vr_p_cleaned.xlsx
+++ b/data/03_interview_qualtrics_data/survey_vr_p_cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schmaelz/Documents/01_GITHUB/nomcomm/GITHUB_PAPERS_WORKING/vr_billboard_p/data/03_interview_qualtrics_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951AFA7D-5ABC-CE4D-91F7-90DAA28DC899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776C5308-CE43-8745-B795-1F22AE50EBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="219">
   <si>
     <t>Participant ID</t>
   </si>
@@ -671,16 +671,57 @@
   </si>
   <si>
     <t>AVG PRESENCE</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>three-dimensional</t>
+  </si>
+  <si>
+    <t>realistic proportions</t>
+  </si>
+  <si>
+    <t>move freely</t>
+  </si>
+  <si>
+    <t>physical presence</t>
+  </si>
+  <si>
+    <t>OVERALL SICKNESS</t>
+  </si>
+  <si>
+    <t>OVERALL SPATIAL PRESENCE</t>
+  </si>
+  <si>
+    <t>Gen Discomfort</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -711,18 +752,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,662 +1092,665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DD47"/>
+  <dimension ref="A1:DD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CH1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="DD2" sqref="DD2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="104" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="21.83203125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BT1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BU1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BV1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BW1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BX1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BY1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CA1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CB1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CC1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CD1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CE1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CF1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CG1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CH1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CI1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CK1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CL1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CM1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CN1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CO1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CP1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CR1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CS1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CT1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CU1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CV1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CW1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CX1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CY1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DA1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DB1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DC1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DD1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
+      <c r="T2" s="1"/>
+      <c r="U2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AO2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AP2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AR2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AS2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AT2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AU2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AV2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AW2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AX2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AY2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BA2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BB2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BC2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BD2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BE2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BF2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BG2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BH2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BI2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BK2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BL2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BM2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BN2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BO2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BP2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BR2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="BS2" s="2" t="s">
+      <c r="BS2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BT2" s="2" t="s">
+      <c r="BT2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BU2" s="2" t="s">
+      <c r="BU2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BV2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BW2" s="2" t="s">
+      <c r="BW2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BX2" s="2" t="s">
+      <c r="BX2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BY2" s="2" t="s">
+      <c r="BY2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="CA2" s="2" t="s">
+      <c r="CA2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CB2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="CC2" s="2" t="s">
+      <c r="CC2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="CD2" s="2" t="s">
+      <c r="CD2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="CE2" s="2" t="s">
+      <c r="CE2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="CF2" s="2" t="s">
+      <c r="CF2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CG2" s="2" t="s">
+      <c r="CG2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="CH2" s="2" t="s">
+      <c r="CH2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="CI2" s="2" t="s">
+      <c r="CI2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="CJ2" s="2" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="CK2" s="2" t="s">
+      <c r="CK2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="CL2" s="2" t="s">
+      <c r="CL2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="CM2" s="2" t="s">
+      <c r="CM2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="CN2" s="2" t="s">
+      <c r="CN2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="CO2" s="2" t="s">
+      <c r="CO2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="CP2" s="2" t="s">
+      <c r="CP2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="CQ2" s="2" t="s">
+      <c r="CQ2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CR2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="CS2" s="2" t="s">
+      <c r="CS2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="CT2" s="2" t="s">
+      <c r="CT2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="CU2" s="2" t="s">
+      <c r="CU2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="CV2" s="2" t="s">
+      <c r="CV2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="CW2" s="2" t="s">
+      <c r="CW2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="CX2" s="2" t="s">
+      <c r="CX2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CY2" s="2" t="s">
+      <c r="CY2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CZ2" s="2" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="DA2" s="2" t="s">
+      <c r="DA2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="DB2" s="2" t="s">
+      <c r="DB2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="DC2" s="2" t="s">
+      <c r="DC2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="DD2" s="2" t="s">
+      <c r="DD2" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B3" s="4">
@@ -2021,10 +2079,10 @@
       </c>
     </row>
     <row r="4" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>21</v>
       </c>
       <c r="C4" s="5">
@@ -2062,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" ref="N4:N43" si="1">AVERAGE(E4:M4)</f>
+        <f>AVERAGE(E4:M4)</f>
         <v>2.4444444444444446</v>
       </c>
       <c r="O4" s="5">
@@ -2081,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" ref="T4:T42" si="2">AVERAGE(O4:S4)</f>
+        <f t="shared" ref="T4:T42" si="1">AVERAGE(O4:S4)</f>
         <v>3.6</v>
       </c>
       <c r="U4" s="5">
@@ -2350,7 +2408,7 @@
       </c>
     </row>
     <row r="5" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B5" s="4">
@@ -2391,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E5:M5)</f>
         <v>1.4444444444444444</v>
       </c>
       <c r="O5" s="5">
@@ -2410,7 +2468,7 @@
         <v>4</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="U5" s="5">
@@ -2679,7 +2737,7 @@
       </c>
     </row>
     <row r="6" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2720,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E6:M6)</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="O6" s="5">
@@ -2739,7 +2797,7 @@
         <v>5</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="U6" s="5">
@@ -3008,7 +3066,7 @@
       </c>
     </row>
     <row r="7" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B7" s="4">
@@ -3049,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E7:M7)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O7" s="5">
@@ -3068,7 +3126,7 @@
         <v>4</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
       <c r="U7" s="5">
@@ -3337,7 +3395,7 @@
       </c>
     </row>
     <row r="8" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B8" s="4">
@@ -3378,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E8:M8)</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="O8" s="5">
@@ -3397,7 +3455,7 @@
         <v>4</v>
       </c>
       <c r="T8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="U8" s="5">
@@ -3666,7 +3724,7 @@
       </c>
     </row>
     <row r="9" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B9" s="4">
@@ -3707,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E9:M9)</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="O9" s="5">
@@ -3726,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="T9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
       <c r="U9" s="5">
@@ -3995,7 +4053,7 @@
       </c>
     </row>
     <row r="10" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B10" s="4">
@@ -4036,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E10:M10)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O10" s="5">
@@ -4055,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="T10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="U10" s="5">
@@ -4324,7 +4382,7 @@
       </c>
     </row>
     <row r="11" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B11" s="4">
@@ -4365,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E11:M11)</f>
         <v>1.5555555555555556</v>
       </c>
       <c r="O11" s="5">
@@ -4384,7 +4442,7 @@
         <v>2</v>
       </c>
       <c r="T11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="U11" s="5">
@@ -4653,7 +4711,7 @@
       </c>
     </row>
     <row r="12" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="4">
@@ -4694,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E12:M12)</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="O12" s="5">
@@ -4713,7 +4771,7 @@
         <v>5</v>
       </c>
       <c r="T12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
       <c r="U12" s="5">
@@ -4982,7 +5040,7 @@
       </c>
     </row>
     <row r="13" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B13" s="4">
@@ -5023,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E13:M13)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O13" s="5">
@@ -5042,7 +5100,7 @@
         <v>4</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="U13" s="5">
@@ -5311,7 +5369,7 @@
       </c>
     </row>
     <row r="14" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -5352,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E14:M14)</f>
         <v>1</v>
       </c>
       <c r="O14" s="5">
@@ -5371,7 +5429,7 @@
         <v>3</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="U14" s="5">
@@ -5640,7 +5698,7 @@
       </c>
     </row>
     <row r="15" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B15" s="4">
@@ -5681,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E15:M15)</f>
         <v>1</v>
       </c>
       <c r="O15" s="5">
@@ -5700,7 +5758,7 @@
         <v>4</v>
       </c>
       <c r="T15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="U15" s="5">
@@ -5969,7 +6027,7 @@
       </c>
     </row>
     <row r="16" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B16" s="4">
@@ -6010,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E16:M16)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="O16" s="5">
@@ -6029,7 +6087,7 @@
         <v>5</v>
       </c>
       <c r="T16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="U16" s="5">
@@ -6298,7 +6356,7 @@
       </c>
     </row>
     <row r="17" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B17" s="4">
@@ -6339,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E17:M17)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="O17" s="5">
@@ -6358,7 +6416,7 @@
         <v>5</v>
       </c>
       <c r="T17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="U17" s="5">
@@ -6627,7 +6685,7 @@
       </c>
     </row>
     <row r="18" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B18" s="4">
@@ -6668,7 +6726,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E18:M18)</f>
         <v>1</v>
       </c>
       <c r="O18" s="5">
@@ -6687,7 +6745,7 @@
         <v>2</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="U18" s="5">
@@ -6956,7 +7014,7 @@
       </c>
     </row>
     <row r="19" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B19" s="4">
@@ -6997,7 +7055,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E19:M19)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="O19" s="5">
@@ -7016,7 +7074,7 @@
         <v>3</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
       <c r="U19" s="5">
@@ -7285,7 +7343,7 @@
       </c>
     </row>
     <row r="20" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -7326,7 +7384,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E20:M20)</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="O20" s="5">
@@ -7345,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.4</v>
       </c>
       <c r="U20" s="5">
@@ -7614,7 +7672,7 @@
       </c>
     </row>
     <row r="21" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -7655,7 +7713,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E21:M21)</f>
         <v>1</v>
       </c>
       <c r="O21" s="5">
@@ -7674,7 +7732,7 @@
         <v>5</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="U21" s="5">
@@ -7943,7 +8001,7 @@
       </c>
     </row>
     <row r="22" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B22" s="4">
@@ -7984,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E22:M22)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O22" s="5">
@@ -8003,7 +8061,7 @@
         <v>4</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
       <c r="U22" s="5">
@@ -8272,7 +8330,7 @@
       </c>
     </row>
     <row r="23" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B23" s="4">
@@ -8313,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E23:M23)</f>
         <v>1.5555555555555556</v>
       </c>
       <c r="O23" s="5">
@@ -8332,7 +8390,7 @@
         <v>4</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.4</v>
       </c>
       <c r="U23" s="5">
@@ -8601,7 +8659,7 @@
       </c>
     </row>
     <row r="24" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -8642,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E24:M24)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O24" s="5">
@@ -8661,7 +8719,7 @@
         <v>2</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
       <c r="U24" s="5">
@@ -8930,7 +8988,7 @@
       </c>
     </row>
     <row r="25" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B25" s="4">
@@ -8971,7 +9029,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E25:M25)</f>
         <v>1.4444444444444444</v>
       </c>
       <c r="O25" s="5">
@@ -8990,7 +9048,7 @@
         <v>4</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="U25" s="5">
@@ -9259,7 +9317,7 @@
       </c>
     </row>
     <row r="26" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B26" s="4">
@@ -9300,7 +9358,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E26:M26)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="O26" s="5">
@@ -9319,7 +9377,7 @@
         <v>2</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="U26" s="5">
@@ -9588,7 +9646,7 @@
       </c>
     </row>
     <row r="27" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -9629,7 +9687,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E27:M27)</f>
         <v>1</v>
       </c>
       <c r="O27" s="5">
@@ -9648,7 +9706,7 @@
         <v>2</v>
       </c>
       <c r="T27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
       <c r="U27" s="5">
@@ -9917,7 +9975,7 @@
       </c>
     </row>
     <row r="28" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -9958,7 +10016,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E28:M28)</f>
         <v>1.5555555555555556</v>
       </c>
       <c r="O28" s="5">
@@ -9977,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="U28" s="5">
@@ -10246,7 +10304,7 @@
       </c>
     </row>
     <row r="29" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B29" s="4">
@@ -10287,7 +10345,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E29:M29)</f>
         <v>1</v>
       </c>
       <c r="O29" s="5">
@@ -10306,7 +10364,7 @@
         <v>5</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="U29" s="5">
@@ -10575,7 +10633,7 @@
       </c>
     </row>
     <row r="30" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B30" s="4">
@@ -10616,7 +10674,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E30:M30)</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="O30" s="5">
@@ -10635,7 +10693,7 @@
         <v>4</v>
       </c>
       <c r="T30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="U30" s="5">
@@ -10904,7 +10962,7 @@
       </c>
     </row>
     <row r="31" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B31" s="4">
@@ -10945,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E31:M31)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="O31" s="5">
@@ -10964,7 +11022,7 @@
         <v>4</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
       <c r="U31" s="5">
@@ -11233,7 +11291,7 @@
       </c>
     </row>
     <row r="32" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -11274,7 +11332,7 @@
         <v>3</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E32:M32)</f>
         <v>1.4444444444444444</v>
       </c>
       <c r="O32" s="5">
@@ -11293,7 +11351,7 @@
         <v>2</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
       <c r="U32" s="5">
@@ -11562,7 +11620,7 @@
       </c>
     </row>
     <row r="33" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -11603,7 +11661,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E33:M33)</f>
         <v>1</v>
       </c>
       <c r="O33" s="5">
@@ -11622,7 +11680,7 @@
         <v>5</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="U33" s="5">
@@ -11891,7 +11949,7 @@
       </c>
     </row>
     <row r="34" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B34" s="4">
@@ -11932,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E34:M34)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O34" s="5">
@@ -11951,7 +12009,7 @@
         <v>4</v>
       </c>
       <c r="T34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="U34" s="5">
@@ -12220,7 +12278,7 @@
       </c>
     </row>
     <row r="35" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B35" s="4">
@@ -12261,7 +12319,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E35:M35)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O35" s="5">
@@ -12280,7 +12338,7 @@
         <v>4</v>
       </c>
       <c r="T35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="U35" s="5">
@@ -12549,7 +12607,7 @@
       </c>
     </row>
     <row r="36" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B36" s="4">
@@ -12590,7 +12648,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E36:M36)</f>
         <v>1</v>
       </c>
       <c r="O36" s="5">
@@ -12609,7 +12667,7 @@
         <v>4</v>
       </c>
       <c r="T36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
       <c r="U36" s="5">
@@ -12878,7 +12936,7 @@
       </c>
     </row>
     <row r="37" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B37" s="4">
@@ -12919,7 +12977,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E37:M37)</f>
         <v>1</v>
       </c>
       <c r="O37" s="5">
@@ -12938,7 +12996,7 @@
         <v>4</v>
       </c>
       <c r="T37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
       <c r="U37" s="5">
@@ -13207,7 +13265,7 @@
       </c>
     </row>
     <row r="38" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B38" s="4">
@@ -13248,7 +13306,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E38:M38)</f>
         <v>2.1111111111111112</v>
       </c>
       <c r="O38" s="5">
@@ -13267,7 +13325,7 @@
         <v>2</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
       <c r="U38" s="5">
@@ -13536,7 +13594,7 @@
       </c>
     </row>
     <row r="39" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -13577,7 +13635,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E39:M39)</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="O39" s="5">
@@ -13596,7 +13654,7 @@
         <v>4</v>
       </c>
       <c r="T39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="U39" s="5">
@@ -13865,7 +13923,7 @@
       </c>
     </row>
     <row r="40" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B40" s="4">
@@ -13906,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E40:M40)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O40" s="5">
@@ -13925,7 +13983,7 @@
         <v>4</v>
       </c>
       <c r="T40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="U40" s="5">
@@ -14194,7 +14252,7 @@
       </c>
     </row>
     <row r="41" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B41" s="4">
@@ -14235,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E41:M41)</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="O41" s="5">
@@ -14254,7 +14312,7 @@
         <v>5</v>
       </c>
       <c r="T41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="U41" s="5">
@@ -14523,7 +14581,7 @@
       </c>
     </row>
     <row r="42" spans="1:108" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B42" s="4">
@@ -14564,7 +14622,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E42:M42)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O42" s="5">
@@ -14583,7 +14641,7 @@
         <v>4</v>
       </c>
       <c r="T42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
       <c r="U42" s="5">
@@ -14855,26 +14913,82 @@
       <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:108" x14ac:dyDescent="0.2">
       <c r="B45" s="5">
         <f>AVERAGE(B3:B42)</f>
         <v>19.8</v>
       </c>
-      <c r="D45" s="5">
+    </row>
+    <row r="46" spans="1:108" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <f>STDEV(B3:B42)</f>
+        <v>1.3235271579877135</v>
+      </c>
+      <c r="D46" s="5">
         <f>SUM(D3:D42)</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <f>STDEV(B3:B42)</f>
-        <v>1.3235271579877135</v>
+      <c r="E46" s="5">
+        <f>AVERAGE(E3:E42)</f>
+        <v>1.35</v>
+      </c>
+      <c r="F46" s="5">
+        <f>AVERAGE(F3:F42)</f>
+        <v>1.05</v>
+      </c>
+      <c r="G46" s="5">
+        <f>AVERAGE(G3:G42)</f>
+        <v>1.575</v>
+      </c>
+      <c r="H46" s="5">
+        <f>AVERAGE(H3:H42)</f>
+        <v>1.35</v>
+      </c>
+      <c r="I46" s="5">
+        <f>AVERAGE(I3:I42)</f>
+        <v>1.175</v>
+      </c>
+      <c r="J46" s="5">
+        <f>AVERAGE(J3:J42)</f>
+        <v>1.4</v>
+      </c>
+      <c r="K46" s="5">
+        <f>AVERAGE(K3:K42)</f>
+        <v>1.575</v>
+      </c>
+      <c r="L46" s="5">
+        <f>AVERAGE(L3:L42)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M46" s="5">
+        <f>AVERAGE(M3:M42)</f>
+        <v>1.075</v>
       </c>
       <c r="N46" s="5">
-        <f>AVERAGE(N4:N43)</f>
-        <v>1.2905982905982909</v>
+        <f>AVERAGE(N3:N42)</f>
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" ref="O46:S46" si="2">AVERAGE(O4:O43)</f>
+        <v>4</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="2"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="Q46" s="5">
+        <f t="shared" si="2"/>
+        <v>3.8205128205128207</v>
+      </c>
+      <c r="R46" s="5">
+        <f t="shared" si="2"/>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="S46" s="5">
+        <f t="shared" si="2"/>
+        <v>3.6666666666666665</v>
       </c>
       <c r="T46" s="5">
         <f>AVERAGE(T4:T43)</f>
@@ -14882,13 +14996,610 @@
       </c>
     </row>
     <row r="47" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="N47">
-        <f>STDEV(N4:N43)</f>
-        <v>0.31593522235949756</v>
-      </c>
-      <c r="T47">
+      <c r="E47" s="2">
+        <f>STDEV(E3:E42)</f>
+        <v>0.66216428358945656</v>
+      </c>
+      <c r="F47" s="2">
+        <f>STDEV(F3:F42)</f>
+        <v>0.22072142786315216</v>
+      </c>
+      <c r="G47" s="2">
+        <f>STDEV(G3:G42)</f>
+        <v>0.59431063275456242</v>
+      </c>
+      <c r="H47" s="2">
+        <f>STDEV(H3:H42)</f>
+        <v>0.53349356567383688</v>
+      </c>
+      <c r="I47" s="2">
+        <f>STDEV(I3:I42)</f>
+        <v>0.38480764425479264</v>
+      </c>
+      <c r="J47" s="2">
+        <f>STDEV(J3:J42)</f>
+        <v>0.6717752982077051</v>
+      </c>
+      <c r="K47" s="2">
+        <f>STDEV(K3:K42)</f>
+        <v>0.7472170590486632</v>
+      </c>
+      <c r="L47" s="2">
+        <f>STDEV(L3:L42)</f>
+        <v>0.42667467941194037</v>
+      </c>
+      <c r="M47" s="2">
+        <f>STDEV(M3:M42)</f>
+        <v>0.34990841292529307</v>
+      </c>
+      <c r="N47" s="2">
+        <f>STDEV(N3:N42)</f>
+        <v>0.31747659705918208</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" ref="O47:S47" si="3">STDEV(O4:O43)</f>
+        <v>0.88852331663863859</v>
+      </c>
+      <c r="P47" s="2">
+        <f t="shared" si="3"/>
+        <v>0.57735026918962484</v>
+      </c>
+      <c r="Q47" s="2">
+        <f t="shared" si="3"/>
+        <v>0.91397900677822386</v>
+      </c>
+      <c r="R47" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0608987099975633</v>
+      </c>
+      <c r="S47" s="2">
+        <f t="shared" si="3"/>
+        <v>1.08417646003371</v>
+      </c>
+      <c r="T47" s="2">
         <f>STDEV(T4:T43)</f>
         <v>0.59435036945677877</v>
+      </c>
+    </row>
+    <row r="48" spans="1:108" x14ac:dyDescent="0.2">
+      <c r="E48" s="5">
+        <f>MIN(E2:E41)</f>
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <f>MIN(F2:F41)</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
+        <f>MIN(G2:G41)</f>
+        <v>1</v>
+      </c>
+      <c r="H48" s="5">
+        <f>MIN(H2:H41)</f>
+        <v>1</v>
+      </c>
+      <c r="I48" s="5">
+        <f>MIN(I2:I41)</f>
+        <v>1</v>
+      </c>
+      <c r="J48" s="5">
+        <f>MIN(J2:J41)</f>
+        <v>1</v>
+      </c>
+      <c r="K48" s="5">
+        <f>MIN(K2:K41)</f>
+        <v>1</v>
+      </c>
+      <c r="L48" s="5">
+        <f>MIN(L2:L41)</f>
+        <v>1</v>
+      </c>
+      <c r="M48" s="5">
+        <f>MIN(M2:M41)</f>
+        <v>1</v>
+      </c>
+      <c r="N48" s="5">
+        <f>MIN(N2:N41)</f>
+        <v>1</v>
+      </c>
+      <c r="O48" s="5">
+        <f>MIN(O3:O42)</f>
+        <v>1</v>
+      </c>
+      <c r="P48" s="5">
+        <f t="shared" ref="P48:T48" si="4">MIN(P3:P42)</f>
+        <v>3</v>
+      </c>
+      <c r="Q48" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R48" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S48" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T48" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="49" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E49" s="5">
+        <f>MAX(E2:E41)</f>
+        <v>4</v>
+      </c>
+      <c r="F49" s="5">
+        <f>MAX(F2:F41)</f>
+        <v>2</v>
+      </c>
+      <c r="G49" s="5">
+        <f>MAX(G2:G41)</f>
+        <v>3</v>
+      </c>
+      <c r="H49" s="5">
+        <f>MAX(H2:H41)</f>
+        <v>3</v>
+      </c>
+      <c r="I49" s="5">
+        <f>MAX(I2:I41)</f>
+        <v>2</v>
+      </c>
+      <c r="J49" s="5">
+        <f>MAX(J2:J41)</f>
+        <v>3</v>
+      </c>
+      <c r="K49" s="5">
+        <f>MAX(K2:K41)</f>
+        <v>4</v>
+      </c>
+      <c r="L49" s="5">
+        <f>MAX(L2:L41)</f>
+        <v>3</v>
+      </c>
+      <c r="M49" s="5">
+        <f>MAX(M2:M41)</f>
+        <v>3</v>
+      </c>
+      <c r="N49" s="5">
+        <f>MAX(N2:N41)</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="O49" s="5">
+        <f>MAX(O3:O42)</f>
+        <v>5</v>
+      </c>
+      <c r="P49" s="5">
+        <f t="shared" ref="P49:T49" si="5">MAX(P3:P42)</f>
+        <v>5</v>
+      </c>
+      <c r="Q49" s="5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="R49" s="5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="S49" s="5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T49" s="5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E50" s="2">
+        <f>COUNT(E3:E42)</f>
+        <v>40</v>
+      </c>
+      <c r="F50" s="2">
+        <f>COUNT(F3:F42)</f>
+        <v>40</v>
+      </c>
+      <c r="G50" s="2">
+        <f>COUNT(G3:G42)</f>
+        <v>40</v>
+      </c>
+      <c r="H50" s="2">
+        <f>COUNT(H3:H42)</f>
+        <v>40</v>
+      </c>
+      <c r="I50" s="2">
+        <f>COUNT(I3:I42)</f>
+        <v>40</v>
+      </c>
+      <c r="J50" s="2">
+        <f>COUNT(J3:J42)</f>
+        <v>40</v>
+      </c>
+      <c r="K50" s="2">
+        <f>COUNT(K3:K42)</f>
+        <v>40</v>
+      </c>
+      <c r="L50" s="2">
+        <f>COUNT(L3:L42)</f>
+        <v>40</v>
+      </c>
+      <c r="M50" s="2">
+        <f>COUNT(M3:M42)</f>
+        <v>40</v>
+      </c>
+      <c r="N50" s="2">
+        <f>COUNT(N3:N42)</f>
+        <v>40</v>
+      </c>
+      <c r="O50" s="2">
+        <f>COUNT(O3:O42)</f>
+        <v>40</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" ref="P50:T50" si="6">COUNT(P3:P42)</f>
+        <v>40</v>
+      </c>
+      <c r="Q50" s="2">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="S50" s="2">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="T50" s="2">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E51" s="2">
+        <f>E47/SQRT(E50)</f>
+        <v>0.10469736606781689</v>
+      </c>
+      <c r="F51" s="2">
+        <f>F47/SQRT(F50)</f>
+        <v>3.4899122022605623E-2</v>
+      </c>
+      <c r="G51" s="2">
+        <f>G47/SQRT(G50)</f>
+        <v>9.3968761858014324E-2</v>
+      </c>
+      <c r="H51" s="2">
+        <f>H47/SQRT(H50)</f>
+        <v>8.4352739228697321E-2</v>
+      </c>
+      <c r="I51" s="2">
+        <f>I47/SQRT(I50)</f>
+        <v>6.0843430844447585E-2</v>
+      </c>
+      <c r="J51" s="2">
+        <f>J47/SQRT(J50)</f>
+        <v>0.10621700090875884</v>
+      </c>
+      <c r="K51" s="2">
+        <f>K47/SQRT(K50)</f>
+        <v>0.11814539065631521</v>
+      </c>
+      <c r="L51" s="2">
+        <f>L47/SQRT(L50)</f>
+        <v>6.7463190343194201E-2</v>
+      </c>
+      <c r="M51" s="2">
+        <f>M47/SQRT(M50)</f>
+        <v>5.5325377864931337E-2</v>
+      </c>
+      <c r="N51" s="2">
+        <f>N47/SQRT(N50)</f>
+        <v>5.0197457525326478E-2</v>
+      </c>
+      <c r="O51" s="2">
+        <f>O47/SQRT(O50)</f>
+        <v>0.14048787173725411</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" ref="P51:T51" si="7">P47/SQRT(P50)</f>
+        <v>9.128709291752754E-2</v>
+      </c>
+      <c r="Q51" s="2">
+        <f t="shared" si="7"/>
+        <v>0.14451276974988306</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" si="7"/>
+        <v>0.16774281451633732</v>
+      </c>
+      <c r="S51" s="2">
+        <f t="shared" si="7"/>
+        <v>0.17142334996225184</v>
+      </c>
+      <c r="T51" s="2">
+        <f t="shared" si="7"/>
+        <v>9.3975044782299705E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E52" s="2">
+        <f>E50-1</f>
+        <v>39</v>
+      </c>
+      <c r="F52" s="2">
+        <f>F50-1</f>
+        <v>39</v>
+      </c>
+      <c r="G52" s="2">
+        <f>G50-1</f>
+        <v>39</v>
+      </c>
+      <c r="H52" s="2">
+        <f>H50-1</f>
+        <v>39</v>
+      </c>
+      <c r="I52" s="2">
+        <f>I50-1</f>
+        <v>39</v>
+      </c>
+      <c r="J52" s="2">
+        <f>J50-1</f>
+        <v>39</v>
+      </c>
+      <c r="K52" s="2">
+        <f>K50-1</f>
+        <v>39</v>
+      </c>
+      <c r="L52" s="2">
+        <f>L50-1</f>
+        <v>39</v>
+      </c>
+      <c r="M52" s="2">
+        <f>M50-1</f>
+        <v>39</v>
+      </c>
+      <c r="N52" s="2">
+        <f>N50-1</f>
+        <v>39</v>
+      </c>
+      <c r="O52" s="2">
+        <f>O50-1</f>
+        <v>39</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" ref="P52:T52" si="8">P50-1</f>
+        <v>39</v>
+      </c>
+      <c r="Q52" s="2">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="R52" s="2">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="S52" s="2">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="T52" s="2">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E53" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I53" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J53" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K53" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L53" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="M53" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="N53" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="O53" s="2">
+        <v>3</v>
+      </c>
+      <c r="P53" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>3</v>
+      </c>
+      <c r="R53" s="2">
+        <v>3</v>
+      </c>
+      <c r="S53" s="2">
+        <v>3</v>
+      </c>
+      <c r="T53" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E54" s="2">
+        <f>(E46-E53)/E51</f>
+        <v>-10.984039457641146</v>
+      </c>
+      <c r="F54" s="2">
+        <f>(F46-F53)/F51</f>
+        <v>-41.548323165859998</v>
+      </c>
+      <c r="G54" s="2">
+        <f>(G46-G53)/G51</f>
+        <v>-9.8436967957252008</v>
+      </c>
+      <c r="H54" s="2">
+        <f>(H46-H53)/H51</f>
+        <v>-13.633226502367842</v>
+      </c>
+      <c r="I54" s="2">
+        <f>(I46-I53)/I51</f>
+        <v>-21.777207195752933</v>
+      </c>
+      <c r="J54" s="2">
+        <f>(J46-J53)/J51</f>
+        <v>-10.356157588603994</v>
+      </c>
+      <c r="K54" s="2">
+        <f>(K46-K53)/K51</f>
+        <v>-7.8293363360304413</v>
+      </c>
+      <c r="L54" s="2">
+        <f>(L46-L53)/L51</f>
+        <v>-20.010912515882676</v>
+      </c>
+      <c r="M54" s="2">
+        <f>(M46-M53)/M51</f>
+        <v>-25.756715181935586</v>
+      </c>
+      <c r="N54" s="2">
+        <f>(N46-N53)/N51</f>
+        <v>-23.905593214448267</v>
+      </c>
+      <c r="O54" s="2">
+        <f>(O46-O53)/O51</f>
+        <v>7.1180521680208733</v>
+      </c>
+      <c r="P54" s="2">
+        <f t="shared" ref="P54:T54" si="9">(P46-P53)/P51</f>
+        <v>14.60593486680445</v>
+      </c>
+      <c r="Q54" s="2">
+        <f t="shared" si="9"/>
+        <v>5.6777876580244886</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="9"/>
+        <v>0.45857747853387287</v>
+      </c>
+      <c r="S54" s="2">
+        <f t="shared" si="9"/>
+        <v>3.8890073424272096</v>
+      </c>
+      <c r="T54" s="2">
+        <f t="shared" si="9"/>
+        <v>8.2946188670930763</v>
+      </c>
+    </row>
+    <row r="55" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E55" s="7">
+        <f>TDIST(-1*E54,E52,1)</f>
+        <v>8.3958605845001783E-14</v>
+      </c>
+      <c r="F55" s="7">
+        <f>TDIST(-1*F54,F52,1)</f>
+        <v>3.3126974791946303E-34</v>
+      </c>
+      <c r="G55" s="7">
+        <f>TDIST(-1*G54,G52,1)</f>
+        <v>1.9950630618708523E-12</v>
+      </c>
+      <c r="H55" s="7">
+        <f>TDIST(-1*H54,H52,1)</f>
+        <v>1.0116924225579414E-16</v>
+      </c>
+      <c r="I55" s="7">
+        <f>TDIST(-1*I54,I52,1)</f>
+        <v>9.84661098431396E-24</v>
+      </c>
+      <c r="J55" s="7">
+        <f>TDIST(-1*J54,J52,1)</f>
+        <v>4.7049983935074692E-13</v>
+      </c>
+      <c r="K55" s="7">
+        <f>TDIST(-1*K54,K52,1)</f>
+        <v>8.0080365891020312E-10</v>
+      </c>
+      <c r="L55" s="7">
+        <f>TDIST(-1*L54,L52,1)</f>
+        <v>2.046597730298376E-22</v>
+      </c>
+      <c r="M55" s="7">
+        <f>TDIST(-1*M54,M52,1)</f>
+        <v>2.1460454313504181E-26</v>
+      </c>
+      <c r="N55" s="7">
+        <f>TDIST(-1*N54,N52,1)</f>
+        <v>3.3220971534634939E-25</v>
+      </c>
+      <c r="O55" s="7">
+        <f>TDIST(O54,O52,1)</f>
+        <v>7.382170270725739E-9</v>
+      </c>
+      <c r="P55" s="7">
+        <f t="shared" ref="P55:T55" si="10">TDIST(P54,P52,1)</f>
+        <v>1.0577676284314633E-17</v>
+      </c>
+      <c r="Q55" s="7">
+        <f t="shared" si="10"/>
+        <v>7.2562906209208969E-7</v>
+      </c>
+      <c r="R55" s="8">
+        <f t="shared" si="10"/>
+        <v>0.32454149596807635</v>
+      </c>
+      <c r="S55" s="7">
+        <f t="shared" si="10"/>
+        <v>1.9052805383505434E-4</v>
+      </c>
+      <c r="T55" s="7">
+        <f t="shared" si="10"/>
+        <v>1.9227717214158928E-10</v>
+      </c>
+    </row>
+    <row r="56" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E56" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/data/03_interview_qualtrics_data/survey_vr_p_cleaned.xlsx
+++ b/data/03_interview_qualtrics_data/survey_vr_p_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schmaelz/Documents/01_GITHUB/nomcomm/GITHUB_PAPERS_WORKING/vr_billboard_p/data/03_interview_qualtrics_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776C5308-CE43-8745-B795-1F22AE50EBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1B6030-F439-5749-A2E8-10D896D07ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$DD$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$DD$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -704,6 +704,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -752,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,6 +779,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,13 +1100,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="104" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="AI23" sqref="AI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="21.83203125" style="2"/>
+    <col min="1" max="31" width="21.83203125" style="2"/>
+    <col min="32" max="40" width="21.83203125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="21.83203125" style="2"/>
+    <col min="42" max="56" width="21.83203125" style="2" customWidth="1"/>
+    <col min="57" max="57" width="21.83203125" style="2"/>
+    <col min="58" max="72" width="21.83203125" style="2" customWidth="1"/>
+    <col min="73" max="16384" width="21.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:108" x14ac:dyDescent="0.2">
@@ -1791,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="5">
-        <f>AVERAGE(E3:M3)</f>
+        <f t="shared" ref="N3:N42" si="0">AVERAGE(E3:M3)</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="O3" s="5">
@@ -2089,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D42" si="0">IF(C4=2,1,)</f>
+        <f t="shared" ref="D4:D42" si="1">IF(C4=2,1,)</f>
         <v>1</v>
       </c>
       <c r="E4" s="5">
@@ -2120,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="5">
-        <f>AVERAGE(E4:M4)</f>
+        <f t="shared" si="0"/>
         <v>2.4444444444444446</v>
       </c>
       <c r="O4" s="5">
@@ -2139,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" ref="T4:T42" si="1">AVERAGE(O4:S4)</f>
+        <f t="shared" ref="T4:T42" si="2">AVERAGE(O4:S4)</f>
         <v>3.6</v>
       </c>
       <c r="U4" s="5">
@@ -2418,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E5" s="5">
@@ -2449,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="5">
-        <f>AVERAGE(E5:M5)</f>
+        <f t="shared" si="0"/>
         <v>1.4444444444444444</v>
       </c>
       <c r="O5" s="5">
@@ -2468,7 +2480,7 @@
         <v>4</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U5" s="5">
@@ -2747,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E6" s="5">
@@ -2778,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="5">
-        <f>AVERAGE(E6:M6)</f>
+        <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="O6" s="5">
@@ -2797,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="U6" s="5">
@@ -3076,38 +3088,38 @@
         <v>2</v>
       </c>
       <c r="D7" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1</v>
-      </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5">
-        <f>AVERAGE(E7:M7)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O7" s="5">
@@ -3126,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
       <c r="U7" s="5">
@@ -3405,38 +3417,38 @@
         <v>1</v>
       </c>
       <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
-        <v>2</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5">
-        <f>AVERAGE(E8:M8)</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="O8" s="5">
@@ -3455,7 +3467,7 @@
         <v>4</v>
       </c>
       <c r="T8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
       <c r="U8" s="5">
@@ -3734,38 +3746,38 @@
         <v>2</v>
       </c>
       <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5">
-        <v>2</v>
-      </c>
-      <c r="K9" s="5">
-        <v>2</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-      <c r="N9" s="5">
-        <f>AVERAGE(E9:M9)</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="O9" s="5">
@@ -3784,7 +3796,7 @@
         <v>4</v>
       </c>
       <c r="T9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
       <c r="U9" s="5">
@@ -4063,38 +4075,38 @@
         <v>1</v>
       </c>
       <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="5">
-        <v>1</v>
-      </c>
-      <c r="N10" s="5">
-        <f>AVERAGE(E10:M10)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O10" s="5">
@@ -4113,7 +4125,7 @@
         <v>4</v>
       </c>
       <c r="T10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U10" s="5">
@@ -4392,7 +4404,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E11" s="5">
@@ -4423,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="5">
-        <f>AVERAGE(E11:M11)</f>
+        <f t="shared" si="0"/>
         <v>1.5555555555555556</v>
       </c>
       <c r="O11" s="5">
@@ -4442,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="T11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
       <c r="U11" s="5">
@@ -4721,7 +4733,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E12" s="5">
@@ -4752,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="5">
-        <f>AVERAGE(E12:M12)</f>
+        <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="O12" s="5">
@@ -4771,7 +4783,7 @@
         <v>5</v>
       </c>
       <c r="T12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
       <c r="U12" s="5">
@@ -5050,38 +5062,38 @@
         <v>2</v>
       </c>
       <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5">
-        <f>AVERAGE(E13:M13)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O13" s="5">
@@ -5100,7 +5112,7 @@
         <v>4</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U13" s="5">
@@ -5379,38 +5391,38 @@
         <v>1</v>
       </c>
       <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5">
-        <f>AVERAGE(E14:M14)</f>
         <v>1</v>
       </c>
       <c r="O14" s="5">
@@ -5429,7 +5441,7 @@
         <v>3</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
       <c r="U14" s="5">
@@ -5708,38 +5720,38 @@
         <v>1</v>
       </c>
       <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1</v>
-      </c>
-      <c r="N15" s="5">
-        <f>AVERAGE(E15:M15)</f>
         <v>1</v>
       </c>
       <c r="O15" s="5">
@@ -5758,7 +5770,7 @@
         <v>4</v>
       </c>
       <c r="T15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
       <c r="U15" s="5">
@@ -6037,38 +6049,38 @@
         <v>2</v>
       </c>
       <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>2</v>
-      </c>
-      <c r="H16" s="5">
-        <v>2</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
-        <v>1</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5">
-        <v>1</v>
-      </c>
-      <c r="N16" s="5">
-        <f>AVERAGE(E16:M16)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="O16" s="5">
@@ -6087,7 +6099,7 @@
         <v>5</v>
       </c>
       <c r="T16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="U16" s="5">
@@ -6366,38 +6378,38 @@
         <v>2</v>
       </c>
       <c r="D17" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>2</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>2</v>
-      </c>
-      <c r="H17" s="5">
-        <v>2</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
-        <v>2</v>
-      </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
-        <f>AVERAGE(E17:M17)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="O17" s="5">
@@ -6416,7 +6428,7 @@
         <v>5</v>
       </c>
       <c r="T17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
       <c r="U17" s="5">
@@ -6695,38 +6707,38 @@
         <v>1</v>
       </c>
       <c r="D18" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5">
-        <v>1</v>
-      </c>
-      <c r="N18" s="5">
-        <f>AVERAGE(E18:M18)</f>
         <v>1</v>
       </c>
       <c r="O18" s="5">
@@ -6745,7 +6757,7 @@
         <v>2</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U18" s="5">
@@ -7024,38 +7036,38 @@
         <v>2</v>
       </c>
       <c r="D19" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>2</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>2</v>
-      </c>
-      <c r="H19" s="5">
-        <v>2</v>
-      </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5">
-        <v>2</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5">
-        <v>1</v>
-      </c>
-      <c r="N19" s="5">
-        <f>AVERAGE(E19:M19)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="O19" s="5">
@@ -7074,7 +7086,7 @@
         <v>3</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
       <c r="U19" s="5">
@@ -7353,38 +7365,38 @@
         <v>1</v>
       </c>
       <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>2</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5">
-        <v>2</v>
-      </c>
-      <c r="K20" s="5">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5">
-        <v>1</v>
-      </c>
-      <c r="M20" s="5">
-        <v>1</v>
-      </c>
-      <c r="N20" s="5">
-        <f>AVERAGE(E20:M20)</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="O20" s="5">
@@ -7403,7 +7415,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
       <c r="U20" s="5">
@@ -7682,38 +7694,38 @@
         <v>2</v>
       </c>
       <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5">
-        <v>1</v>
-      </c>
-      <c r="M21" s="5">
-        <v>1</v>
-      </c>
-      <c r="N21" s="5">
-        <f>AVERAGE(E21:M21)</f>
         <v>1</v>
       </c>
       <c r="O21" s="5">
@@ -7732,7 +7744,7 @@
         <v>5</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="U21" s="5">
@@ -8011,38 +8023,38 @@
         <v>1</v>
       </c>
       <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>2</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5">
-        <v>1</v>
-      </c>
-      <c r="M22" s="5">
-        <v>1</v>
-      </c>
-      <c r="N22" s="5">
-        <f>AVERAGE(E22:M22)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O22" s="5">
@@ -8061,7 +8073,7 @@
         <v>4</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
       <c r="U22" s="5">
@@ -8340,7 +8352,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E23" s="5">
@@ -8371,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="5">
-        <f>AVERAGE(E23:M23)</f>
+        <f t="shared" si="0"/>
         <v>1.5555555555555556</v>
       </c>
       <c r="O23" s="5">
@@ -8390,7 +8402,7 @@
         <v>4</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
       <c r="U23" s="5">
@@ -8669,38 +8681,38 @@
         <v>1</v>
       </c>
       <c r="D24" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>2</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5">
-        <v>1</v>
-      </c>
-      <c r="M24" s="5">
-        <v>1</v>
-      </c>
-      <c r="N24" s="5">
-        <f>AVERAGE(E24:M24)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O24" s="5">
@@ -8719,7 +8731,7 @@
         <v>2</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
       <c r="U24" s="5">
@@ -8998,7 +9010,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E25" s="5">
@@ -9029,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="5">
-        <f>AVERAGE(E25:M25)</f>
+        <f t="shared" si="0"/>
         <v>1.4444444444444444</v>
       </c>
       <c r="O25" s="5">
@@ -9048,7 +9060,7 @@
         <v>4</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="U25" s="5">
@@ -9327,38 +9339,38 @@
         <v>2</v>
       </c>
       <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>2</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1</v>
+      </c>
+      <c r="N26" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5">
-        <v>2</v>
-      </c>
-      <c r="H26" s="5">
-        <v>2</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5">
-        <v>2</v>
-      </c>
-      <c r="L26" s="5">
-        <v>1</v>
-      </c>
-      <c r="M26" s="5">
-        <v>1</v>
-      </c>
-      <c r="N26" s="5">
-        <f>AVERAGE(E26:M26)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="O26" s="5">
@@ -9377,7 +9389,7 @@
         <v>2</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
       <c r="U26" s="5">
@@ -9656,38 +9668,38 @@
         <v>2</v>
       </c>
       <c r="D27" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5">
-        <v>1</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1</v>
-      </c>
-      <c r="M27" s="5">
-        <v>1</v>
-      </c>
-      <c r="N27" s="5">
-        <f>AVERAGE(E27:M27)</f>
         <v>1</v>
       </c>
       <c r="O27" s="5">
@@ -9706,7 +9718,7 @@
         <v>2</v>
       </c>
       <c r="T27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
       <c r="U27" s="5">
@@ -9985,38 +9997,38 @@
         <v>2</v>
       </c>
       <c r="D28" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>2</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>2</v>
+      </c>
+      <c r="J28" s="5">
+        <v>2</v>
+      </c>
+      <c r="K28" s="5">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5">
+        <v>2</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <v>2</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5">
-        <v>2</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1</v>
-      </c>
-      <c r="I28" s="5">
-        <v>2</v>
-      </c>
-      <c r="J28" s="5">
-        <v>2</v>
-      </c>
-      <c r="K28" s="5">
-        <v>1</v>
-      </c>
-      <c r="L28" s="5">
-        <v>2</v>
-      </c>
-      <c r="M28" s="5">
-        <v>1</v>
-      </c>
-      <c r="N28" s="5">
-        <f>AVERAGE(E28:M28)</f>
         <v>1.5555555555555556</v>
       </c>
       <c r="O28" s="5">
@@ -10035,7 +10047,7 @@
         <v>3</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="U28" s="5">
@@ -10314,38 +10326,38 @@
         <v>2</v>
       </c>
       <c r="D29" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1</v>
+      </c>
+      <c r="N29" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5">
-        <v>1</v>
-      </c>
-      <c r="L29" s="5">
-        <v>1</v>
-      </c>
-      <c r="M29" s="5">
-        <v>1</v>
-      </c>
-      <c r="N29" s="5">
-        <f>AVERAGE(E29:M29)</f>
         <v>1</v>
       </c>
       <c r="O29" s="5">
@@ -10364,7 +10376,7 @@
         <v>5</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="U29" s="5">
@@ -10643,38 +10655,38 @@
         <v>1</v>
       </c>
       <c r="D30" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5">
+        <v>2</v>
+      </c>
+      <c r="J30" s="5">
+        <v>2</v>
+      </c>
+      <c r="K30" s="5">
+        <v>2</v>
+      </c>
+      <c r="L30" s="5">
+        <v>2</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>2</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
-        <v>2</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1</v>
-      </c>
-      <c r="I30" s="5">
-        <v>2</v>
-      </c>
-      <c r="J30" s="5">
-        <v>2</v>
-      </c>
-      <c r="K30" s="5">
-        <v>2</v>
-      </c>
-      <c r="L30" s="5">
-        <v>2</v>
-      </c>
-      <c r="M30" s="5">
-        <v>1</v>
-      </c>
-      <c r="N30" s="5">
-        <f>AVERAGE(E30:M30)</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="O30" s="5">
@@ -10693,7 +10705,7 @@
         <v>4</v>
       </c>
       <c r="T30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="U30" s="5">
@@ -10972,38 +10984,38 @@
         <v>2</v>
       </c>
       <c r="D31" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
+        <v>2</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>2</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="5">
+        <v>1</v>
+      </c>
+      <c r="N31" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <v>2</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5">
-        <v>2</v>
-      </c>
-      <c r="J31" s="5">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5">
-        <v>2</v>
-      </c>
-      <c r="L31" s="5">
-        <v>1</v>
-      </c>
-      <c r="M31" s="5">
-        <v>1</v>
-      </c>
-      <c r="N31" s="5">
-        <f>AVERAGE(E31:M31)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="O31" s="5">
@@ -11022,7 +11034,7 @@
         <v>4</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6</v>
       </c>
       <c r="U31" s="5">
@@ -11301,7 +11313,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E32" s="5">
@@ -11332,7 +11344,7 @@
         <v>3</v>
       </c>
       <c r="N32" s="5">
-        <f>AVERAGE(E32:M32)</f>
+        <f t="shared" si="0"/>
         <v>1.4444444444444444</v>
       </c>
       <c r="O32" s="5">
@@ -11351,7 +11363,7 @@
         <v>2</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
       <c r="U32" s="5">
@@ -11630,38 +11642,38 @@
         <v>1</v>
       </c>
       <c r="D33" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="5">
+        <v>1</v>
+      </c>
+      <c r="N33" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5">
-        <v>1</v>
-      </c>
-      <c r="J33" s="5">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5">
-        <v>1</v>
-      </c>
-      <c r="L33" s="5">
-        <v>1</v>
-      </c>
-      <c r="M33" s="5">
-        <v>1</v>
-      </c>
-      <c r="N33" s="5">
-        <f>AVERAGE(E33:M33)</f>
         <v>1</v>
       </c>
       <c r="O33" s="5">
@@ -11680,7 +11692,7 @@
         <v>5</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
       <c r="U33" s="5">
@@ -11959,38 +11971,38 @@
         <v>1</v>
       </c>
       <c r="D34" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1</v>
+      </c>
+      <c r="M34" s="5">
+        <v>1</v>
+      </c>
+      <c r="N34" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>2</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
-        <v>1</v>
-      </c>
-      <c r="H34" s="5">
-        <v>1</v>
-      </c>
-      <c r="I34" s="5">
-        <v>1</v>
-      </c>
-      <c r="J34" s="5">
-        <v>1</v>
-      </c>
-      <c r="K34" s="5">
-        <v>1</v>
-      </c>
-      <c r="L34" s="5">
-        <v>1</v>
-      </c>
-      <c r="M34" s="5">
-        <v>1</v>
-      </c>
-      <c r="N34" s="5">
-        <f>AVERAGE(E34:M34)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O34" s="5">
@@ -12009,7 +12021,7 @@
         <v>4</v>
       </c>
       <c r="T34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U34" s="5">
@@ -12288,38 +12300,38 @@
         <v>1</v>
       </c>
       <c r="D35" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5">
+        <v>2</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1</v>
+      </c>
+      <c r="M35" s="5">
+        <v>1</v>
+      </c>
+      <c r="N35" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5">
-        <v>1</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="H35" s="5">
-        <v>1</v>
-      </c>
-      <c r="I35" s="5">
-        <v>1</v>
-      </c>
-      <c r="J35" s="5">
-        <v>1</v>
-      </c>
-      <c r="K35" s="5">
-        <v>2</v>
-      </c>
-      <c r="L35" s="5">
-        <v>1</v>
-      </c>
-      <c r="M35" s="5">
-        <v>1</v>
-      </c>
-      <c r="N35" s="5">
-        <f>AVERAGE(E35:M35)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O35" s="5">
@@ -12338,7 +12350,7 @@
         <v>4</v>
       </c>
       <c r="T35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
       <c r="U35" s="5">
@@ -12617,38 +12629,38 @@
         <v>2</v>
       </c>
       <c r="D36" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1</v>
+      </c>
+      <c r="M36" s="5">
+        <v>1</v>
+      </c>
+      <c r="N36" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1</v>
-      </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-      <c r="H36" s="5">
-        <v>1</v>
-      </c>
-      <c r="I36" s="5">
-        <v>1</v>
-      </c>
-      <c r="J36" s="5">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5">
-        <v>1</v>
-      </c>
-      <c r="L36" s="5">
-        <v>1</v>
-      </c>
-      <c r="M36" s="5">
-        <v>1</v>
-      </c>
-      <c r="N36" s="5">
-        <f>AVERAGE(E36:M36)</f>
         <v>1</v>
       </c>
       <c r="O36" s="5">
@@ -12667,7 +12679,7 @@
         <v>4</v>
       </c>
       <c r="T36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
       <c r="U36" s="5">
@@ -12946,38 +12958,38 @@
         <v>2</v>
       </c>
       <c r="D37" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="5">
+        <v>1</v>
+      </c>
+      <c r="N37" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-      <c r="F37" s="5">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1</v>
-      </c>
-      <c r="H37" s="5">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5">
-        <v>1</v>
-      </c>
-      <c r="J37" s="5">
-        <v>1</v>
-      </c>
-      <c r="K37" s="5">
-        <v>1</v>
-      </c>
-      <c r="L37" s="5">
-        <v>1</v>
-      </c>
-      <c r="M37" s="5">
-        <v>1</v>
-      </c>
-      <c r="N37" s="5">
-        <f>AVERAGE(E37:M37)</f>
         <v>1</v>
       </c>
       <c r="O37" s="5">
@@ -12996,7 +13008,7 @@
         <v>4</v>
       </c>
       <c r="T37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
       <c r="U37" s="5">
@@ -13275,7 +13287,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E38" s="5">
@@ -13306,7 +13318,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="5">
-        <f>AVERAGE(E38:M38)</f>
+        <f t="shared" si="0"/>
         <v>2.1111111111111112</v>
       </c>
       <c r="O38" s="5">
@@ -13325,7 +13337,7 @@
         <v>2</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6</v>
       </c>
       <c r="U38" s="5">
@@ -13604,38 +13616,38 @@
         <v>1</v>
       </c>
       <c r="D39" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>2</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="5">
+        <v>1</v>
+      </c>
+      <c r="N39" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1</v>
-      </c>
-      <c r="G39" s="5">
-        <v>2</v>
-      </c>
-      <c r="H39" s="5">
-        <v>1</v>
-      </c>
-      <c r="I39" s="5">
-        <v>1</v>
-      </c>
-      <c r="J39" s="5">
-        <v>2</v>
-      </c>
-      <c r="K39" s="5">
-        <v>1</v>
-      </c>
-      <c r="L39" s="5">
-        <v>1</v>
-      </c>
-      <c r="M39" s="5">
-        <v>1</v>
-      </c>
-      <c r="N39" s="5">
-        <f>AVERAGE(E39:M39)</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="O39" s="5">
@@ -13654,7 +13666,7 @@
         <v>4</v>
       </c>
       <c r="T39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U39" s="5">
@@ -13933,38 +13945,38 @@
         <v>1</v>
       </c>
       <c r="D40" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1</v>
+      </c>
+      <c r="N40" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1</v>
-      </c>
-      <c r="G40" s="5">
-        <v>1</v>
-      </c>
-      <c r="H40" s="5">
-        <v>2</v>
-      </c>
-      <c r="I40" s="5">
-        <v>1</v>
-      </c>
-      <c r="J40" s="5">
-        <v>1</v>
-      </c>
-      <c r="K40" s="5">
-        <v>1</v>
-      </c>
-      <c r="L40" s="5">
-        <v>1</v>
-      </c>
-      <c r="M40" s="5">
-        <v>1</v>
-      </c>
-      <c r="N40" s="5">
-        <f>AVERAGE(E40:M40)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O40" s="5">
@@ -13983,7 +13995,7 @@
         <v>4</v>
       </c>
       <c r="T40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U40" s="5">
@@ -14262,38 +14274,38 @@
         <v>2</v>
       </c>
       <c r="D41" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5">
+        <v>2</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1</v>
+      </c>
+      <c r="N41" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>1</v>
-      </c>
-      <c r="G41" s="5">
-        <v>2</v>
-      </c>
-      <c r="H41" s="5">
-        <v>1</v>
-      </c>
-      <c r="I41" s="5">
-        <v>1</v>
-      </c>
-      <c r="J41" s="5">
-        <v>1</v>
-      </c>
-      <c r="K41" s="5">
-        <v>2</v>
-      </c>
-      <c r="L41" s="5">
-        <v>1</v>
-      </c>
-      <c r="M41" s="5">
-        <v>1</v>
-      </c>
-      <c r="N41" s="5">
-        <f>AVERAGE(E41:M41)</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="O41" s="5">
@@ -14312,7 +14324,7 @@
         <v>5</v>
       </c>
       <c r="T41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="U41" s="5">
@@ -14591,38 +14603,38 @@
         <v>2</v>
       </c>
       <c r="D42" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="M42" s="5">
+        <v>1</v>
+      </c>
+      <c r="N42" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1</v>
-      </c>
-      <c r="F42" s="5">
-        <v>1</v>
-      </c>
-      <c r="G42" s="5">
-        <v>2</v>
-      </c>
-      <c r="H42" s="5">
-        <v>1</v>
-      </c>
-      <c r="I42" s="5">
-        <v>1</v>
-      </c>
-      <c r="J42" s="5">
-        <v>1</v>
-      </c>
-      <c r="K42" s="5">
-        <v>1</v>
-      </c>
-      <c r="L42" s="5">
-        <v>1</v>
-      </c>
-      <c r="M42" s="5">
-        <v>1</v>
-      </c>
-      <c r="N42" s="5">
-        <f>AVERAGE(E42:M42)</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="O42" s="5">
@@ -14641,7 +14653,7 @@
         <v>4</v>
       </c>
       <c r="T42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
       <c r="U42" s="5">
@@ -14914,12 +14926,20 @@
     </row>
     <row r="44" spans="1:108" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
+      <c r="BE44" s="5">
+        <f>AVERAGE(BE3:BE42)</f>
+        <v>1.95</v>
+      </c>
     </row>
     <row r="45" spans="1:108" x14ac:dyDescent="0.2">
       <c r="B45" s="5">
         <f>AVERAGE(B3:B42)</f>
         <v>19.8</v>
       </c>
+      <c r="BE45" s="5">
+        <f>BE44-1</f>
+        <v>0.95</v>
+      </c>
     </row>
     <row r="46" spans="1:108" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
@@ -14931,63 +14951,63 @@
         <v>24</v>
       </c>
       <c r="E46" s="5">
-        <f>AVERAGE(E3:E42)</f>
+        <f t="shared" ref="E46:N46" si="3">AVERAGE(E3:E42)</f>
         <v>1.35</v>
       </c>
       <c r="F46" s="5">
-        <f>AVERAGE(F3:F42)</f>
+        <f t="shared" si="3"/>
         <v>1.05</v>
       </c>
       <c r="G46" s="5">
-        <f>AVERAGE(G3:G42)</f>
+        <f t="shared" si="3"/>
         <v>1.575</v>
       </c>
       <c r="H46" s="5">
-        <f>AVERAGE(H3:H42)</f>
+        <f t="shared" si="3"/>
         <v>1.35</v>
       </c>
       <c r="I46" s="5">
-        <f>AVERAGE(I3:I42)</f>
+        <f t="shared" si="3"/>
         <v>1.175</v>
       </c>
       <c r="J46" s="5">
-        <f>AVERAGE(J3:J42)</f>
+        <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
       <c r="K46" s="5">
-        <f>AVERAGE(K3:K42)</f>
+        <f t="shared" si="3"/>
         <v>1.575</v>
       </c>
       <c r="L46" s="5">
-        <f>AVERAGE(L3:L42)</f>
+        <f t="shared" si="3"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="M46" s="5">
-        <f>AVERAGE(M3:M42)</f>
+        <f t="shared" si="3"/>
         <v>1.075</v>
       </c>
       <c r="N46" s="5">
-        <f>AVERAGE(N3:N42)</f>
+        <f t="shared" si="3"/>
         <v>1.3000000000000003</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" ref="O46:S46" si="2">AVERAGE(O4:O43)</f>
+        <f t="shared" ref="O46:S46" si="4">AVERAGE(O4:O43)</f>
         <v>4</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.8205128205128207</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0769230769230771</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="T46" s="5">
@@ -14997,63 +15017,63 @@
     </row>
     <row r="47" spans="1:108" x14ac:dyDescent="0.2">
       <c r="E47" s="2">
-        <f>STDEV(E3:E42)</f>
+        <f t="shared" ref="E47:N47" si="5">STDEV(E3:E42)</f>
         <v>0.66216428358945656</v>
       </c>
       <c r="F47" s="2">
-        <f>STDEV(F3:F42)</f>
+        <f t="shared" si="5"/>
         <v>0.22072142786315216</v>
       </c>
       <c r="G47" s="2">
-        <f>STDEV(G3:G42)</f>
+        <f t="shared" si="5"/>
         <v>0.59431063275456242</v>
       </c>
       <c r="H47" s="2">
-        <f>STDEV(H3:H42)</f>
+        <f t="shared" si="5"/>
         <v>0.53349356567383688</v>
       </c>
       <c r="I47" s="2">
-        <f>STDEV(I3:I42)</f>
+        <f t="shared" si="5"/>
         <v>0.38480764425479264</v>
       </c>
       <c r="J47" s="2">
-        <f>STDEV(J3:J42)</f>
+        <f t="shared" si="5"/>
         <v>0.6717752982077051</v>
       </c>
       <c r="K47" s="2">
-        <f>STDEV(K3:K42)</f>
+        <f t="shared" si="5"/>
         <v>0.7472170590486632</v>
       </c>
       <c r="L47" s="2">
-        <f>STDEV(L3:L42)</f>
+        <f t="shared" si="5"/>
         <v>0.42667467941194037</v>
       </c>
       <c r="M47" s="2">
-        <f>STDEV(M3:M42)</f>
+        <f t="shared" si="5"/>
         <v>0.34990841292529307</v>
       </c>
       <c r="N47" s="2">
-        <f>STDEV(N3:N42)</f>
+        <f t="shared" si="5"/>
         <v>0.31747659705918208</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" ref="O47:S47" si="3">STDEV(O4:O43)</f>
+        <f t="shared" ref="O47:S47" si="6">STDEV(O4:O43)</f>
         <v>0.88852331663863859</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.57735026918962484</v>
       </c>
       <c r="Q47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.91397900677822386</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0608987099975633</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.08417646003371</v>
       </c>
       <c r="T47" s="2">
@@ -15063,43 +15083,43 @@
     </row>
     <row r="48" spans="1:108" x14ac:dyDescent="0.2">
       <c r="E48" s="5">
-        <f>MIN(E2:E41)</f>
+        <f t="shared" ref="E48:N48" si="7">MIN(E2:E41)</f>
         <v>1</v>
       </c>
       <c r="F48" s="5">
-        <f>MIN(F2:F41)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G48" s="5">
-        <f>MIN(G2:G41)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H48" s="5">
-        <f>MIN(H2:H41)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I48" s="5">
-        <f>MIN(I2:I41)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J48" s="5">
-        <f>MIN(J2:J41)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K48" s="5">
-        <f>MIN(K2:K41)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L48" s="5">
-        <f>MIN(L2:L41)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M48" s="5">
-        <f>MIN(M2:M41)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N48" s="5">
-        <f>MIN(N2:N41)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O48" s="5">
@@ -15107,65 +15127,66 @@
         <v>1</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" ref="P48:T48" si="4">MIN(P3:P42)</f>
+        <f t="shared" ref="P48:T48" si="8">MIN(P3:P42)</f>
         <v>3</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.4</v>
       </c>
+      <c r="AF48" s="9"/>
     </row>
     <row r="49" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E49" s="5">
-        <f>MAX(E2:E41)</f>
+        <f t="shared" ref="E49:N49" si="9">MAX(E2:E41)</f>
         <v>4</v>
       </c>
       <c r="F49" s="5">
-        <f>MAX(F2:F41)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="G49" s="5">
-        <f>MAX(G2:G41)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H49" s="5">
-        <f>MAX(H2:H41)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="I49" s="5">
-        <f>MAX(I2:I41)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="J49" s="5">
-        <f>MAX(J2:J41)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="K49" s="5">
-        <f>MAX(K2:K41)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="L49" s="5">
-        <f>MAX(L2:L41)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="M49" s="5">
-        <f>MAX(M2:M41)</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="N49" s="5">
-        <f>MAX(N2:N41)</f>
+        <f t="shared" si="9"/>
         <v>2.4444444444444446</v>
       </c>
       <c r="O49" s="5">
@@ -15173,221 +15194,221 @@
         <v>5</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" ref="P49:T49" si="5">MAX(P3:P42)</f>
+        <f t="shared" ref="P49:T49" si="10">MAX(P3:P42)</f>
         <v>5</v>
       </c>
       <c r="Q49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E50" s="2">
-        <f>COUNT(E3:E42)</f>
+        <f t="shared" ref="E50:O50" si="11">COUNT(E3:E42)</f>
         <v>40</v>
       </c>
       <c r="F50" s="2">
-        <f>COUNT(F3:F42)</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="G50" s="2">
-        <f>COUNT(G3:G42)</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="H50" s="2">
-        <f>COUNT(H3:H42)</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="I50" s="2">
-        <f>COUNT(I3:I42)</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="J50" s="2">
-        <f>COUNT(J3:J42)</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="K50" s="2">
-        <f>COUNT(K3:K42)</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="L50" s="2">
-        <f>COUNT(L3:L42)</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="M50" s="2">
-        <f>COUNT(M3:M42)</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="N50" s="2">
-        <f>COUNT(N3:N42)</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="O50" s="2">
-        <f>COUNT(O3:O42)</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="P50" s="2">
-        <f t="shared" ref="P50:T50" si="6">COUNT(P3:P42)</f>
+        <f t="shared" ref="P50:T50" si="12">COUNT(P3:P42)</f>
         <v>40</v>
       </c>
       <c r="Q50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="R50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="T50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
     </row>
     <row r="51" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E51" s="2">
-        <f>E47/SQRT(E50)</f>
+        <f t="shared" ref="E51:O51" si="13">E47/SQRT(E50)</f>
         <v>0.10469736606781689</v>
       </c>
       <c r="F51" s="2">
-        <f>F47/SQRT(F50)</f>
+        <f t="shared" si="13"/>
         <v>3.4899122022605623E-2</v>
       </c>
       <c r="G51" s="2">
-        <f>G47/SQRT(G50)</f>
+        <f t="shared" si="13"/>
         <v>9.3968761858014324E-2</v>
       </c>
       <c r="H51" s="2">
-        <f>H47/SQRT(H50)</f>
+        <f t="shared" si="13"/>
         <v>8.4352739228697321E-2</v>
       </c>
       <c r="I51" s="2">
-        <f>I47/SQRT(I50)</f>
+        <f t="shared" si="13"/>
         <v>6.0843430844447585E-2</v>
       </c>
       <c r="J51" s="2">
-        <f>J47/SQRT(J50)</f>
+        <f t="shared" si="13"/>
         <v>0.10621700090875884</v>
       </c>
       <c r="K51" s="2">
-        <f>K47/SQRT(K50)</f>
+        <f t="shared" si="13"/>
         <v>0.11814539065631521</v>
       </c>
       <c r="L51" s="2">
-        <f>L47/SQRT(L50)</f>
+        <f t="shared" si="13"/>
         <v>6.7463190343194201E-2</v>
       </c>
       <c r="M51" s="2">
-        <f>M47/SQRT(M50)</f>
+        <f t="shared" si="13"/>
         <v>5.5325377864931337E-2</v>
       </c>
       <c r="N51" s="2">
-        <f>N47/SQRT(N50)</f>
+        <f t="shared" si="13"/>
         <v>5.0197457525326478E-2</v>
       </c>
       <c r="O51" s="2">
-        <f>O47/SQRT(O50)</f>
+        <f t="shared" si="13"/>
         <v>0.14048787173725411</v>
       </c>
       <c r="P51" s="2">
-        <f t="shared" ref="P51:T51" si="7">P47/SQRT(P50)</f>
+        <f t="shared" ref="P51:T51" si="14">P47/SQRT(P50)</f>
         <v>9.128709291752754E-2</v>
       </c>
       <c r="Q51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.14451276974988306</v>
       </c>
       <c r="R51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.16774281451633732</v>
       </c>
       <c r="S51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.17142334996225184</v>
       </c>
       <c r="T51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>9.3975044782299705E-2</v>
       </c>
     </row>
     <row r="52" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E52" s="2">
-        <f>E50-1</f>
+        <f t="shared" ref="E52:O52" si="15">E50-1</f>
         <v>39</v>
       </c>
       <c r="F52" s="2">
-        <f>F50-1</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="G52" s="2">
-        <f>G50-1</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="H52" s="2">
-        <f>H50-1</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="I52" s="2">
-        <f>I50-1</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="J52" s="2">
-        <f>J50-1</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="K52" s="2">
-        <f>K50-1</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="L52" s="2">
-        <f>L50-1</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="M52" s="2">
-        <f>M50-1</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="N52" s="2">
-        <f>N50-1</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="O52" s="2">
-        <f>O50-1</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="P52" s="2">
-        <f t="shared" ref="P52:T52" si="8">P50-1</f>
+        <f t="shared" ref="P52:T52" si="16">P50-1</f>
         <v>39</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>39</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>39</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>39</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>39</v>
       </c>
     </row>
@@ -15443,109 +15464,109 @@
     </row>
     <row r="54" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E54" s="2">
-        <f>(E46-E53)/E51</f>
+        <f t="shared" ref="E54:O54" si="17">(E46-E53)/E51</f>
         <v>-10.984039457641146</v>
       </c>
       <c r="F54" s="2">
-        <f>(F46-F53)/F51</f>
+        <f t="shared" si="17"/>
         <v>-41.548323165859998</v>
       </c>
       <c r="G54" s="2">
-        <f>(G46-G53)/G51</f>
+        <f t="shared" si="17"/>
         <v>-9.8436967957252008</v>
       </c>
       <c r="H54" s="2">
-        <f>(H46-H53)/H51</f>
+        <f t="shared" si="17"/>
         <v>-13.633226502367842</v>
       </c>
       <c r="I54" s="2">
-        <f>(I46-I53)/I51</f>
+        <f t="shared" si="17"/>
         <v>-21.777207195752933</v>
       </c>
       <c r="J54" s="2">
-        <f>(J46-J53)/J51</f>
+        <f t="shared" si="17"/>
         <v>-10.356157588603994</v>
       </c>
       <c r="K54" s="2">
-        <f>(K46-K53)/K51</f>
+        <f t="shared" si="17"/>
         <v>-7.8293363360304413</v>
       </c>
       <c r="L54" s="2">
-        <f>(L46-L53)/L51</f>
+        <f t="shared" si="17"/>
         <v>-20.010912515882676</v>
       </c>
       <c r="M54" s="2">
-        <f>(M46-M53)/M51</f>
+        <f t="shared" si="17"/>
         <v>-25.756715181935586</v>
       </c>
       <c r="N54" s="2">
-        <f>(N46-N53)/N51</f>
+        <f t="shared" si="17"/>
         <v>-23.905593214448267</v>
       </c>
       <c r="O54" s="2">
-        <f>(O46-O53)/O51</f>
+        <f t="shared" si="17"/>
         <v>7.1180521680208733</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" ref="P54:T54" si="9">(P46-P53)/P51</f>
+        <f t="shared" ref="P54:T54" si="18">(P46-P53)/P51</f>
         <v>14.60593486680445</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.6777876580244886</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>0.45857747853387287</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>3.8890073424272096</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>8.2946188670930763</v>
       </c>
     </row>
     <row r="55" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E55" s="7">
-        <f>TDIST(-1*E54,E52,1)</f>
+        <f t="shared" ref="E55:N55" si="19">TDIST(-1*E54,E52,1)</f>
         <v>8.3958605845001783E-14</v>
       </c>
       <c r="F55" s="7">
-        <f>TDIST(-1*F54,F52,1)</f>
+        <f t="shared" si="19"/>
         <v>3.3126974791946303E-34</v>
       </c>
       <c r="G55" s="7">
-        <f>TDIST(-1*G54,G52,1)</f>
+        <f t="shared" si="19"/>
         <v>1.9950630618708523E-12</v>
       </c>
       <c r="H55" s="7">
-        <f>TDIST(-1*H54,H52,1)</f>
+        <f t="shared" si="19"/>
         <v>1.0116924225579414E-16</v>
       </c>
       <c r="I55" s="7">
-        <f>TDIST(-1*I54,I52,1)</f>
+        <f t="shared" si="19"/>
         <v>9.84661098431396E-24</v>
       </c>
       <c r="J55" s="7">
-        <f>TDIST(-1*J54,J52,1)</f>
+        <f t="shared" si="19"/>
         <v>4.7049983935074692E-13</v>
       </c>
       <c r="K55" s="7">
-        <f>TDIST(-1*K54,K52,1)</f>
+        <f t="shared" si="19"/>
         <v>8.0080365891020312E-10</v>
       </c>
       <c r="L55" s="7">
-        <f>TDIST(-1*L54,L52,1)</f>
+        <f t="shared" si="19"/>
         <v>2.046597730298376E-22</v>
       </c>
       <c r="M55" s="7">
-        <f>TDIST(-1*M54,M52,1)</f>
+        <f t="shared" si="19"/>
         <v>2.1460454313504181E-26</v>
       </c>
       <c r="N55" s="7">
-        <f>TDIST(-1*N54,N52,1)</f>
+        <f t="shared" si="19"/>
         <v>3.3220971534634939E-25</v>
       </c>
       <c r="O55" s="7">
@@ -15553,23 +15574,23 @@
         <v>7.382170270725739E-9</v>
       </c>
       <c r="P55" s="7">
-        <f t="shared" ref="P55:T55" si="10">TDIST(P54,P52,1)</f>
+        <f t="shared" ref="P55:T55" si="20">TDIST(P54,P52,1)</f>
         <v>1.0577676284314633E-17</v>
       </c>
       <c r="Q55" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>7.2562906209208969E-7</v>
       </c>
       <c r="R55" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.32454149596807635</v>
       </c>
       <c r="S55" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.9052805383505434E-4</v>
       </c>
       <c r="T55" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.9227717214158928E-10</v>
       </c>
     </row>
@@ -15603,7 +15624,55 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:DD43" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:DD56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="BU3:BU42">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE3:BE42">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO3:AO42">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AE42">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A1:A2 B1:B2 A3 A4:A6 B6 A13 B14 A8 A22 A15:A20 A24 A30:A31 A33:A34 A37 A39:A41 B20:B21 B24 B27:B28 B32:B33 B39" numberStoredAsText="1"/>
